--- a/100runs/run096/NotionalETEOutput096.xlsx
+++ b/100runs/run096/NotionalETEOutput096.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,16 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_488.MISSILE_HIGHWIND_488</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_495.MISSILE_HIGHWIND_495</t>
+    <t>MISSILE_BRAVER_235.MISSILE_BRAVER_235</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_SOMERSAULT_95.MISSILE_SOMERSAULT_95</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -465,31 +471,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>146.5531521859849</v>
+        <v>1116579.716934765</v>
       </c>
       <c r="G2">
-        <v>-119.2200206823569</v>
+        <v>4841119.882265866</v>
       </c>
       <c r="H2">
-        <v>443.2043173874632</v>
+        <v>3985227.010037669</v>
       </c>
       <c r="I2">
-        <v>-1082.585509968075</v>
+        <v>1114859.668886198</v>
       </c>
       <c r="J2">
-        <v>1575.949638425856</v>
+        <v>4843213.440143848</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984369.60684664</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -500,31 +506,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>146.5531521859849</v>
+        <v>1116579.716934765</v>
       </c>
       <c r="G3">
-        <v>-119.2200206823569</v>
+        <v>4841119.882265866</v>
       </c>
       <c r="H3">
-        <v>443.2043173874632</v>
+        <v>3985227.010037669</v>
       </c>
       <c r="I3">
-        <v>-1061.21238936047</v>
+        <v>1114889.282837809</v>
       </c>
       <c r="J3">
-        <v>1537.613411981728</v>
+        <v>4843164.788654403</v>
       </c>
       <c r="K3">
-        <v>144.426091956114</v>
+        <v>3984673.402784151</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -535,31 +541,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>146.5531521859849</v>
+        <v>1116579.716934765</v>
       </c>
       <c r="G4">
-        <v>-119.2200206823569</v>
+        <v>4841119.882265866</v>
       </c>
       <c r="H4">
-        <v>443.2043173874632</v>
+        <v>3985227.010037669</v>
       </c>
       <c r="I4">
-        <v>-1039.312975320813</v>
+        <v>1114919.626005735</v>
       </c>
       <c r="J4">
-        <v>1499.277185537601</v>
+        <v>4843116.137164957</v>
       </c>
       <c r="K4">
-        <v>281.6504369418573</v>
+        <v>3984962.050063667</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -570,31 +576,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>146.5531521859849</v>
+        <v>1116579.716934765</v>
       </c>
       <c r="G5">
-        <v>-119.2200206823569</v>
+        <v>4841119.882265866</v>
       </c>
       <c r="H5">
-        <v>443.2043173874632</v>
+        <v>3985227.010037669</v>
       </c>
       <c r="I5">
-        <v>-1016.87430835752</v>
+        <v>1114950.716346255</v>
       </c>
       <c r="J5">
-        <v>1460.940959093473</v>
+        <v>4843067.485675512</v>
       </c>
       <c r="K5">
-        <v>411.6730349572308</v>
+        <v>3985235.548685189</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -605,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>146.5531521859849</v>
+        <v>1116579.716934765</v>
       </c>
       <c r="G6">
-        <v>-119.2200206823569</v>
+        <v>4841119.882265866</v>
       </c>
       <c r="H6">
-        <v>443.2043173874632</v>
+        <v>3985227.010037669</v>
       </c>
       <c r="I6">
-        <v>-993.8831098634516</v>
+        <v>1114982.572257808</v>
       </c>
       <c r="J6">
-        <v>1422.604732649345</v>
+        <v>4843018.834186067</v>
       </c>
       <c r="K6">
-        <v>534.4938860022338</v>
+        <v>3985493.898648716</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,31 +646,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>146.5531521859849</v>
+        <v>1116579.716934765</v>
       </c>
       <c r="G7">
-        <v>-119.2200206823569</v>
+        <v>4841119.882265866</v>
       </c>
       <c r="H7">
-        <v>443.2043173874632</v>
+        <v>3985227.010037669</v>
       </c>
       <c r="I7">
-        <v>-970.3257742579813</v>
+        <v>1115015.212591876</v>
       </c>
       <c r="J7">
-        <v>1384.268506205218</v>
+        <v>4842970.182696622</v>
       </c>
       <c r="K7">
-        <v>650.1129900768672</v>
+        <v>3985737.099954247</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -675,31 +681,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>146.5531521859849</v>
+        <v>1116579.716934765</v>
       </c>
       <c r="G8">
-        <v>-119.2200206823569</v>
+        <v>4841119.882265866</v>
       </c>
       <c r="H8">
-        <v>443.2043173874632</v>
+        <v>3985227.010037669</v>
       </c>
       <c r="I8">
-        <v>-946.1883609355776</v>
+        <v>1115048.656664142</v>
       </c>
       <c r="J8">
-        <v>1345.93227976109</v>
+        <v>4842921.531207176</v>
       </c>
       <c r="K8">
-        <v>758.5303471811301</v>
+        <v>3985965.152601784</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -710,31 +716,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>146.5531521859849</v>
+        <v>1116579.716934765</v>
       </c>
       <c r="G9">
-        <v>-119.2200206823569</v>
+        <v>4841119.882265866</v>
       </c>
       <c r="H9">
-        <v>443.2043173874632</v>
+        <v>3985227.010037669</v>
       </c>
       <c r="I9">
-        <v>-921.456586016123</v>
+        <v>1115082.92426592</v>
       </c>
       <c r="J9">
-        <v>1307.596053316962</v>
+        <v>4842872.879717731</v>
       </c>
       <c r="K9">
-        <v>859.7459573150229</v>
+        <v>3986178.056591325</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -745,31 +751,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>146.5531521859849</v>
+        <v>1116579.716934765</v>
       </c>
       <c r="G10">
-        <v>-99.53343944489539</v>
+        <v>4841136.39506911</v>
       </c>
       <c r="H10">
-        <v>443.2043173874632</v>
+        <v>3985227.010037669</v>
       </c>
       <c r="I10">
-        <v>-896.1158138920925</v>
+        <v>1115118.035675865</v>
       </c>
       <c r="J10">
-        <v>1269.259826872835</v>
+        <v>4842824.228228286</v>
       </c>
       <c r="K10">
-        <v>953.7598204785452</v>
+        <v>3986375.811922872</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,31 +786,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>113.742342468063</v>
+        <v>1116531.036318108</v>
       </c>
       <c r="G11">
-        <v>-79.84685820743388</v>
+        <v>4841152.907872354</v>
       </c>
       <c r="H11">
-        <v>546.0247366747651</v>
+        <v>3985426.26437853</v>
       </c>
       <c r="I11">
-        <v>-870.1510485675906</v>
+        <v>1115154.011671979</v>
       </c>
       <c r="J11">
-        <v>1230.923600428707</v>
+        <v>4842775.576738841</v>
       </c>
       <c r="K11">
-        <v>1040.571936671697</v>
+        <v>3986558.418596425</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,31 +821,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>94.46763772667853</v>
+        <v>1116502.438897904</v>
       </c>
       <c r="G12">
-        <v>-60.1602769699724</v>
+        <v>4841169.420675597</v>
       </c>
       <c r="H12">
-        <v>607.2698368381567</v>
+        <v>3985544.950454201</v>
       </c>
       <c r="I12">
-        <v>-843.546924784119</v>
+        <v>1115190.8735439</v>
       </c>
       <c r="J12">
-        <v>1192.587373984579</v>
+        <v>4842726.925249395</v>
       </c>
       <c r="K12">
-        <v>1120.182305894479</v>
+        <v>3986725.876611982</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,31 +856,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>82.30003003003196</v>
+        <v>1116484.386108259</v>
       </c>
       <c r="G13">
-        <v>-40.4736957325109</v>
+        <v>4841185.933478842</v>
       </c>
       <c r="H13">
-        <v>651.0375705268586</v>
+        <v>3985629.767370798</v>
       </c>
       <c r="I13">
-        <v>-816.2876989278241</v>
+        <v>1115228.643105504</v>
       </c>
       <c r="J13">
-        <v>1154.251147540451</v>
+        <v>4842678.27375995</v>
       </c>
       <c r="K13">
-        <v>1192.590928146892</v>
+        <v>3986878.185969544</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -885,31 +891,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>73.81438981360994</v>
+        <v>1116471.796166041</v>
       </c>
       <c r="G14">
-        <v>-20.7871144950494</v>
+        <v>4841202.446282084</v>
       </c>
       <c r="H14">
-        <v>685.1194813016705</v>
+        <v>3985695.81425831</v>
       </c>
       <c r="I14">
-        <v>-788.3572397128462</v>
+        <v>1115267.342707816</v>
       </c>
       <c r="J14">
-        <v>1115.914921096324</v>
+        <v>4842629.622270505</v>
       </c>
       <c r="K14">
-        <v>1257.797803428934</v>
+        <v>3987015.346669111</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -920,31 +926,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>67.4838480962285</v>
+        <v>1116462.403692121</v>
       </c>
       <c r="G15">
-        <v>-1.100533257587921</v>
+        <v>4841218.959085329</v>
       </c>
       <c r="H15">
-        <v>713.0352098602126</v>
+        <v>3985749.911782247</v>
       </c>
       <c r="I15">
-        <v>-759.7390186352508</v>
+        <v>1115306.995252231</v>
       </c>
       <c r="J15">
-        <v>1077.578694652196</v>
+        <v>4842580.97078106</v>
       </c>
       <c r="K15">
-        <v>1315.802931740605</v>
+        <v>3987137.358710684</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -955,31 +961,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>62.53424850717826</v>
+        <v>1116455.060089136</v>
       </c>
       <c r="G16">
-        <v>18.58604797987358</v>
+        <v>4841235.471888572</v>
       </c>
       <c r="H16">
-        <v>736.6777941998781</v>
+        <v>3985795.728436094</v>
       </c>
       <c r="I16">
-        <v>-730.4161001919001</v>
+        <v>1115347.624204074</v>
       </c>
       <c r="J16">
-        <v>1039.242468208068</v>
+        <v>4842532.319291614</v>
       </c>
       <c r="K16">
-        <v>1366.606313081906</v>
+        <v>3987244.222094262</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -990,31 +996,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>58.52966204747328</v>
+        <v>1116449.118579615</v>
       </c>
       <c r="G17">
-        <v>38.27262921733508</v>
+        <v>4841251.984691815</v>
       </c>
       <c r="H17">
-        <v>757.1834301582153</v>
+        <v>3985835.46603885</v>
       </c>
       <c r="I17">
-        <v>-700.3711318584722</v>
+        <v>1115389.253606477</v>
       </c>
       <c r="J17">
-        <v>1000.906241763941</v>
+        <v>4842483.667802169</v>
       </c>
       <c r="K17">
-        <v>1410.207947452837</v>
+        <v>3987335.936819844</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1025,31 +1031,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>55.20442837182521</v>
+        <v>1116444.185009634</v>
       </c>
       <c r="G18">
-        <v>57.95921045479656</v>
+        <v>4841268.49749506</v>
       </c>
       <c r="H18">
-        <v>775.2878776009096</v>
+        <v>3985870.5504099</v>
       </c>
       <c r="I18">
-        <v>-669.5863338206979</v>
+        <v>1115431.908094616</v>
       </c>
       <c r="J18">
-        <v>962.5700153198131</v>
+        <v>4842435.016312724</v>
       </c>
       <c r="K18">
-        <v>1446.607834853399</v>
+        <v>3987412.502887432</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1060,31 +1066,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>52.38654302446095</v>
+        <v>1116440.004180281</v>
       </c>
       <c r="G19">
-        <v>77.64579169225807</v>
+        <v>4841285.010298303</v>
       </c>
       <c r="H19">
-        <v>791.4950011997803</v>
+        <v>3985901.957981979</v>
       </c>
       <c r="I19">
-        <v>-638.043488452738</v>
+        <v>1115475.612910284</v>
       </c>
       <c r="J19">
-        <v>924.2337888756854</v>
+        <v>4842386.364823279</v>
       </c>
       <c r="K19">
-        <v>1475.80597528359</v>
+        <v>3987473.920297025</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1095,31 +1101,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>49.9592097116333</v>
+        <v>1116436.402803676</v>
       </c>
       <c r="G20">
-        <v>97.33237292971957</v>
+        <v>4841301.523101547</v>
       </c>
       <c r="H20">
-        <v>806.1650221129463</v>
+        <v>3985930.38682294</v>
       </c>
       <c r="I20">
-        <v>-605.7239295364776</v>
+        <v>1115520.39391683</v>
       </c>
       <c r="J20">
-        <v>885.8975624315577</v>
+        <v>4842337.713333833</v>
       </c>
       <c r="K20">
-        <v>1497.80236874341</v>
+        <v>3987520.189048623</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1130,31 +1136,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>47.84002230501255</v>
+        <v>1116433.258615811</v>
       </c>
       <c r="G21">
-        <v>117.0189541671811</v>
+        <v>4841318.035904791</v>
       </c>
       <c r="H21">
-        <v>819.5644111626079</v>
+        <v>3985956.353323092</v>
       </c>
       <c r="I21">
-        <v>-572.6085312153537</v>
+        <v>1115566.277614465</v>
       </c>
       <c r="J21">
-        <v>847.56133598743</v>
+        <v>4842289.061844388</v>
       </c>
       <c r="K21">
-        <v>1512.59701523286</v>
+        <v>3987551.309142226</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1165,31 +1171,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>45.96898011913457</v>
+        <v>1116430.482595097</v>
       </c>
       <c r="G22">
-        <v>136.7055354046426</v>
+        <v>4841334.548708034</v>
       </c>
       <c r="H22">
-        <v>831.8958399508414</v>
+        <v>3985980.250237072</v>
       </c>
       <c r="I22">
-        <v>-538.6776966761795</v>
+        <v>1115613.291155942</v>
       </c>
       <c r="J22">
-        <v>809.2251095433024</v>
+        <v>4842240.410354943</v>
       </c>
       <c r="K22">
-        <v>1520.189914751941</v>
+        <v>3987567.280577834</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1200,31 +1206,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>44.30123242260782</v>
+        <v>1116428.008197574</v>
       </c>
       <c r="G23">
-        <v>156.392116642104</v>
+        <v>4841351.061511278</v>
       </c>
       <c r="H23">
-        <v>843.3170507599964</v>
+        <v>3986002.383251578</v>
       </c>
       <c r="I23">
-        <v>-503.9113465522736</v>
+        <v>1115661.462362626</v>
       </c>
       <c r="J23">
-        <v>770.8888830991747</v>
+        <v>4842191.758865498</v>
       </c>
       <c r="K23">
-        <v>1520.581067300651</v>
+        <v>3987568.103355448</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1235,31 +1241,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>42.80249773155371</v>
+        <v>1116425.784560621</v>
       </c>
       <c r="G24">
-        <v>176.0786978795656</v>
+        <v>4841367.574314523</v>
       </c>
       <c r="H24">
-        <v>853.9532278122297</v>
+        <v>3986022.994959471</v>
       </c>
       <c r="I24">
-        <v>-468.2889070410224</v>
+        <v>1115710.819740958</v>
       </c>
       <c r="J24">
-        <v>732.5526566550469</v>
+        <v>4842143.107376052</v>
       </c>
       <c r="K24">
-        <v>1513.770472878991</v>
+        <v>3987553.777475066</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1270,31 +1276,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>41.44606724755666</v>
+        <v>1116423.772057028</v>
       </c>
       <c r="G25">
-        <v>195.765279117027</v>
+        <v>4841384.087117765</v>
       </c>
       <c r="H25">
-        <v>863.9053833748055</v>
+        <v>3986042.281111099</v>
       </c>
       <c r="I25">
-        <v>-431.7892977288496</v>
+        <v>1115761.392499323</v>
       </c>
       <c r="J25">
-        <v>694.2164302109194</v>
+        <v>4842094.455886607</v>
       </c>
       <c r="K25">
-        <v>1499.758131486961</v>
+        <v>3987524.302936689</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1305,31 +1311,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>40.21078401715299</v>
+        <v>1116421.93929673</v>
       </c>
       <c r="G26">
-        <v>215.4518603544886</v>
+        <v>4841400.59992101</v>
       </c>
       <c r="H26">
-        <v>873.2562063929487</v>
+        <v>3986060.401948282</v>
       </c>
       <c r="I26">
-        <v>-394.3909191163896</v>
+        <v>1115813.210565337</v>
       </c>
       <c r="J26">
-        <v>655.8802037667916</v>
+        <v>4842045.804397162</v>
       </c>
       <c r="K26">
-        <v>1478.54404312456</v>
+        <v>3987479.679740318</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1340,31 +1346,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>39.07964369413823</v>
+        <v>1116420.261050783</v>
       </c>
       <c r="G27">
-        <v>235.13844159195</v>
+        <v>4841417.112724252</v>
       </c>
       <c r="H27">
-        <v>882.0742426566093</v>
+        <v>3986077.490305007</v>
       </c>
       <c r="I27">
-        <v>-356.0716398364753</v>
+        <v>1115866.304603554</v>
       </c>
       <c r="J27">
-        <v>617.5439773226639</v>
+        <v>4841997.152907716</v>
       </c>
       <c r="K27">
-        <v>1450.12820779179</v>
+        <v>3987419.907885952</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1375,31 +1381,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>38.03880310166127</v>
+        <v>1116418.716780394</v>
       </c>
       <c r="G28">
-        <v>254.8250228294115</v>
+        <v>4841433.625527496</v>
       </c>
       <c r="H28">
-        <v>890.4169469674056</v>
+        <v>3986093.65752218</v>
       </c>
       <c r="I28">
-        <v>-316.8087835573838</v>
+        <v>1115920.706033618</v>
       </c>
       <c r="J28">
-        <v>579.2077508785363</v>
+        <v>4841948.501418271</v>
       </c>
       <c r="K28">
-        <v>1414.510625488649</v>
+        <v>3987344.987373591</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1410,31 +1416,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>37.07686331056624</v>
+        <v>1116417.289573244</v>
       </c>
       <c r="G29">
-        <v>274.511604066873</v>
+        <v>4841450.138330741</v>
       </c>
       <c r="H29">
-        <v>898.3329539403755</v>
+        <v>3986108.997848183</v>
       </c>
       <c r="I29">
-        <v>-276.5791155635847</v>
+        <v>1115976.447048848</v>
       </c>
       <c r="J29">
-        <v>540.8715244344086</v>
+        <v>4841899.849928827</v>
       </c>
       <c r="K29">
-        <v>1371.691296215138</v>
+        <v>3987254.918203235</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1445,31 +1451,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>36.18434177165263</v>
+        <v>1116415.965360301</v>
       </c>
       <c r="G30">
-        <v>294.1981853043345</v>
+        <v>4841466.651133983</v>
       </c>
       <c r="H30">
-        <v>905.8637958324381</v>
+        <v>3986123.591767832</v>
       </c>
       <c r="I30">
-        <v>-235.3588290060543</v>
+        <v>1116033.560635297</v>
       </c>
       <c r="J30">
-        <v>502.5352979902808</v>
+        <v>4841851.198439382</v>
       </c>
       <c r="K30">
-        <v>1321.670219971257</v>
+        <v>3987149.700374884</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1480,31 +1486,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>35.35327731594369</v>
+        <v>1116414.732329768</v>
       </c>
       <c r="G31">
-        <v>313.884766541796</v>
+        <v>4841483.163937228</v>
       </c>
       <c r="H31">
-        <v>913.0452215091989</v>
+        <v>3986137.508558383</v>
       </c>
       <c r="I31">
-        <v>-193.1235308140131</v>
+        <v>1116092.08059127</v>
       </c>
       <c r="J31">
-        <v>464.1990715461532</v>
+        <v>4841802.546949936</v>
       </c>
       <c r="K31">
-        <v>1264.447396757006</v>
+        <v>3987029.333888538</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1515,31 +1521,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>34.57693025052981</v>
+        <v>1116413.580482124</v>
       </c>
       <c r="G32">
-        <v>333.5713477792575</v>
+        <v>4841499.676740472</v>
       </c>
       <c r="H32">
-        <v>919.9082227694014</v>
+        <v>3986150.808278438</v>
       </c>
       <c r="I32">
-        <v>-149.8482272597548</v>
+        <v>1116152.04154732</v>
       </c>
       <c r="J32">
-        <v>425.8628451020255</v>
+        <v>4841753.895460491</v>
       </c>
       <c r="K32">
-        <v>1200.022826572384</v>
+        <v>3986893.818744197</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1550,31 +1556,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>33.84955164196592</v>
+        <v>1116412.501287812</v>
       </c>
       <c r="G33">
-        <v>353.257929016719</v>
+        <v>4841516.189543715</v>
       </c>
       <c r="H33">
-        <v>926.4798426427719</v>
+        <v>3986163.543334328</v>
       </c>
       <c r="I33">
-        <v>-105.5073091680219</v>
+        <v>1116213.478986751</v>
       </c>
       <c r="J33">
-        <v>387.5266186578979</v>
+        <v>4841705.243971046</v>
       </c>
       <c r="K33">
-        <v>1128.396509417393</v>
+        <v>3986743.154941862</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1585,31 +1591,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>33.16620369196312</v>
+        <v>1116411.48742074</v>
       </c>
       <c r="G34">
-        <v>372.9445102541805</v>
+        <v>4841532.702346959</v>
       </c>
       <c r="H34">
-        <v>932.7838189830568</v>
+        <v>3986175.759727329</v>
       </c>
       <c r="I34">
-        <v>-60.0745367611766</v>
+        <v>1116276.429266606</v>
       </c>
       <c r="J34">
-        <v>349.1903922137702</v>
+        <v>4841656.592481601</v>
       </c>
       <c r="K34">
-        <v>1049.56844529203</v>
+        <v>3986577.342481532</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1620,31 +1626,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>32.52261835718156</v>
+        <v>1116410.532548512</v>
       </c>
       <c r="G35">
-        <v>392.631091491642</v>
+        <v>4841549.215150202</v>
       </c>
       <c r="H35">
-        <v>938.8411020579284</v>
+        <v>3986187.498056688</v>
       </c>
       <c r="I35">
-        <v>-13.52302413119717</v>
+        <v>1116340.929639189</v>
       </c>
       <c r="J35">
-        <v>310.8541657696424</v>
+        <v>4841607.940992155</v>
       </c>
       <c r="K35">
-        <v>963.5386341962983</v>
+        <v>3986396.381363206</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1655,31 +1661,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>31.91508495254685</v>
+        <v>1116409.631165674</v>
       </c>
       <c r="G36">
-        <v>412.3176727291035</v>
+        <v>4841565.727953446</v>
       </c>
       <c r="H36">
-        <v>944.6702746264475</v>
+        <v>3986198.794333692</v>
       </c>
       <c r="I36">
-        <v>34.1747766706893</v>
+        <v>1116407.018274107</v>
       </c>
       <c r="J36">
-        <v>272.5179393255148</v>
+        <v>4841559.28950271</v>
       </c>
       <c r="K36">
-        <v>870.3070761301962</v>
+        <v>3986200.271586886</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1690,31 +1696,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>31.34035997098576</v>
+        <v>1116408.778459911</v>
       </c>
       <c r="G37">
-        <v>432.004253966565</v>
+        <v>4841582.240756691</v>
       </c>
       <c r="H37">
-        <v>950.2878957511928</v>
+        <v>3986209.68064793</v>
       </c>
       <c r="I37">
-        <v>83.04709193615004</v>
+        <v>1116474.734280861</v>
       </c>
       <c r="J37">
-        <v>234.1817128813871</v>
+        <v>4841510.638013265</v>
       </c>
       <c r="K37">
-        <v>769.8737710937238</v>
+        <v>3985989.013152571</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1725,31 +1731,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>30.79559411168308</v>
+        <v>1116407.970203785</v>
       </c>
       <c r="G38">
-        <v>451.6908352040265</v>
+        <v>4841598.753559933</v>
       </c>
       <c r="H38">
-        <v>955.7087843797564</v>
+        <v>3986220.185716846</v>
       </c>
       <c r="I38">
-        <v>133.1228430033176</v>
+        <v>1116544.117731982</v>
       </c>
       <c r="J38">
-        <v>195.8454864372595</v>
+        <v>4841461.98652382</v>
       </c>
       <c r="K38">
-        <v>662.2387190868815</v>
+        <v>3985762.606060261</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1760,31 +1766,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>30.27827276740166</v>
+        <v>1116407.202666432</v>
       </c>
       <c r="G39">
-        <v>471.377416441488</v>
+        <v>4841615.266363177</v>
       </c>
       <c r="H39">
-        <v>960.9462549299368</v>
+        <v>3986230.335342275</v>
       </c>
       <c r="I39">
-        <v>184.4316633716674</v>
+        <v>1116615.209686757</v>
       </c>
       <c r="J39">
-        <v>157.5092599931318</v>
+        <v>4841413.335034374</v>
       </c>
       <c r="K39">
-        <v>547.4019201096684</v>
+        <v>3985521.050309956</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1795,31 +1801,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>29.7861671331765</v>
+        <v>1116406.472541027</v>
       </c>
       <c r="G40">
-        <v>491.0639976789495</v>
+        <v>4841631.779166422</v>
       </c>
       <c r="H40">
-        <v>966.0123143083817</v>
+        <v>3986240.152792245</v>
       </c>
       <c r="I40">
-        <v>237.003916238339</v>
+        <v>1116688.052215514</v>
       </c>
       <c r="J40">
-        <v>119.173033549004</v>
+        <v>4841364.683544929</v>
       </c>
       <c r="K40">
-        <v>425.3633741620853</v>
+        <v>3985264.345901656</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1830,31 +1836,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>29.31729376714513</v>
+        <v>1116405.776884785</v>
       </c>
       <c r="G41">
-        <v>510.750578916411</v>
+        <v>4841648.291969664</v>
       </c>
       <c r="H41">
-        <v>970.9178276993587</v>
+        <v>3986249.659122252</v>
       </c>
       <c r="I41">
-        <v>290.8707124662659</v>
+        <v>1116762.688424527</v>
       </c>
       <c r="J41">
-        <v>80.83680710487644</v>
+        <v>4841316.032055484</v>
       </c>
       <c r="K41">
-        <v>296.1230812441324</v>
+        <v>3984992.492835362</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1865,31 +1871,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>28.86988092975853</v>
+        <v>1116405.113069017</v>
       </c>
       <c r="G42">
-        <v>530.4371601538725</v>
+        <v>4841664.804772909</v>
       </c>
       <c r="H42">
-        <v>975.6726588819499</v>
+        <v>3986258.873447187</v>
       </c>
       <c r="I42">
-        <v>346.0639289947628</v>
+        <v>1116839.162481524</v>
       </c>
       <c r="J42">
-        <v>42.5005806607487</v>
+        <v>4841267.380566039</v>
       </c>
       <c r="K42">
-        <v>159.6810413558088</v>
+        <v>3984705.491111072</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1900,31 +1906,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>28.44234039865265</v>
+        <v>1116404.478737318</v>
       </c>
       <c r="G43">
-        <v>550.123741391334</v>
+        <v>4841681.317576152</v>
       </c>
       <c r="H43">
-        <v>980.2857896321153</v>
+        <v>3986267.813172713</v>
       </c>
       <c r="I43">
-        <v>402.6162277034453</v>
+        <v>1116917.51964182</v>
       </c>
       <c r="J43">
-        <v>4.164354216620947</v>
+        <v>4841218.729076593</v>
       </c>
       <c r="K43">
-        <v>16.03725449711524</v>
+        <v>3984403.340728788</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1935,31 +1941,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>28.03324373698195</v>
+        <v>1116403.871770347</v>
       </c>
       <c r="G44">
-        <v>569.8103226287955</v>
+        <v>4841697.830379396</v>
       </c>
       <c r="H44">
-        <v>984.7654218426121</v>
+        <v>3986276.494193172</v>
       </c>
       <c r="I44">
-        <v>460.5610747406678</v>
+        <v>1116997.8062751</v>
       </c>
       <c r="J44">
-        <v>-34.17187222750663</v>
+        <v>4841170.077587148</v>
       </c>
       <c r="K44">
-        <v>-134.8082793319481</v>
+        <v>3984086.041688508</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1970,31 +1976,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>27.64130220700193</v>
+        <v>1116403.290256037</v>
       </c>
       <c r="G45">
-        <v>589.496903866257</v>
+        <v>4841714.34318264</v>
       </c>
       <c r="H45">
-        <v>989.1190652781971</v>
+        <v>3986284.931061637</v>
       </c>
       <c r="I45">
-        <v>519.9327603279005</v>
+        <v>1117080.069892863</v>
       </c>
       <c r="J45">
-        <v>-72.50809867163437</v>
+        <v>4841121.426097703</v>
       </c>
       <c r="K45">
-        <v>-292.8555601313821</v>
+        <v>3983753.593990234</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2005,31 +2011,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>27.26534968529283</v>
+        <v>1116402.732464238</v>
       </c>
       <c r="G46">
-        <v>609.1834851037185</v>
+        <v>4841730.855985883</v>
       </c>
       <c r="H46">
-        <v>993.3536133246502</v>
+        <v>3986293.137136712</v>
       </c>
       <c r="I46">
-        <v>580.7664190517698</v>
+        <v>1117164.359176532</v>
       </c>
       <c r="J46">
-        <v>-110.8443251157621</v>
+        <v>4841072.774608257</v>
       </c>
       <c r="K46">
-        <v>-458.1045879011867</v>
+        <v>3983405.997633965</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2040,31 +2046,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>26.90432806364376</v>
+        <v>1116402.19682506</v>
       </c>
       <c r="G47">
-        <v>628.8700663411799</v>
+        <v>4841747.368789127</v>
       </c>
       <c r="H47">
-        <v>997.4754086503727</v>
+        <v>3986301.124709769</v>
       </c>
       <c r="I47">
-        <v>643.0980506557747</v>
+        <v>1117250.724006266</v>
       </c>
       <c r="J47">
-        <v>-149.1805515598899</v>
+        <v>4841024.123118812</v>
       </c>
       <c r="K47">
-        <v>-630.5553626413611</v>
+        <v>3983043.252619701</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2075,31 +2081,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>26.55727471930057</v>
+        <v>1116401.681910281</v>
       </c>
       <c r="G48">
-        <v>648.5566475786414</v>
+        <v>4841763.881592372</v>
       </c>
       <c r="H48">
-        <v>1001.490300350831</v>
+        <v>3986308.905115693</v>
       </c>
       <c r="I48">
-        <v>706.9645413439782</v>
+        <v>1117339.215490479</v>
       </c>
       <c r="J48">
-        <v>-187.5167780040173</v>
+        <v>4840975.471629367</v>
       </c>
       <c r="K48">
-        <v>-810.2078843519045</v>
+        <v>3982665.358947441</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2110,31 +2116,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>26.22331171669455</v>
+        <v>1116401.186417331</v>
       </c>
       <c r="G49">
-        <v>668.2432288161029</v>
+        <v>4841780.394395614</v>
       </c>
       <c r="H49">
-        <v>1005.403693868128</v>
+        <v>3986316.488829621</v>
       </c>
       <c r="I49">
-        <v>772.4036856092854</v>
+        <v>1117429.88599608</v>
       </c>
       <c r="J49">
-        <v>-225.853004448145</v>
+        <v>4840926.820139922</v>
       </c>
       <c r="K49">
-        <v>-997.0621530328191</v>
+        <v>3982272.316617188</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2145,31 +2151,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>25.9016364648538</v>
+        <v>1116400.709155424</v>
       </c>
       <c r="G50">
-        <v>687.9298100535644</v>
+        <v>4841796.907198858</v>
       </c>
       <c r="H50">
-        <v>1009.220594754873</v>
+        <v>3986323.885551747</v>
       </c>
       <c r="I50">
-        <v>839.4542085992165</v>
+        <v>1117522.789179465</v>
       </c>
       <c r="J50">
-        <v>-264.1892308922727</v>
+        <v>4840878.168650476</v>
       </c>
       <c r="K50">
-        <v>-1191.118168684104</v>
+        <v>3981864.125628939</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2180,31 +2186,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>25.59151360416748</v>
+        <v>1116400.249033524</v>
       </c>
       <c r="G51">
-        <v>707.6163912910258</v>
+        <v>4841813.420002102</v>
       </c>
       <c r="H51">
-        <v>1012.945647171348</v>
+        <v>3986331.104281927</v>
       </c>
       <c r="I51">
-        <v>908.1557890324245</v>
+        <v>1117617.980018272</v>
       </c>
       <c r="J51">
-        <v>-302.5254573364005</v>
+        <v>4840829.517161031</v>
       </c>
       <c r="K51">
-        <v>-1392.37593130576</v>
+        <v>3981440.785982696</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2215,31 +2221,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>25.29226793582295</v>
+        <v>1116399.805049855</v>
       </c>
       <c r="G52">
-        <v>727.3029725284874</v>
+        <v>4841829.932805345</v>
       </c>
       <c r="H52">
-        <v>1016.583167858718</v>
+        <v>3986338.15338552</v>
       </c>
       <c r="I52">
-        <v>978.5490826795061</v>
+        <v>1117715.514843911</v>
       </c>
       <c r="J52">
-        <v>-340.8616837805283</v>
+        <v>4840780.865671586</v>
       </c>
       <c r="K52">
-        <v>-1600.835440897785</v>
+        <v>3981002.297678457</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2250,31 +2256,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>25.00327823919146</v>
+        <v>1116399.376282728</v>
       </c>
       <c r="G53">
-        <v>746.9895537659489</v>
+        <v>4841846.44560859</v>
       </c>
       <c r="H53">
-        <v>1020.137176211606</v>
+        <v>3986345.040651655</v>
       </c>
       <c r="I53">
-        <v>1050.675746422003</v>
+        <v>1117815.451374901</v>
       </c>
       <c r="J53">
-        <v>-379.1979102246556</v>
+        <v>4840732.214182141</v>
       </c>
       <c r="K53">
-        <v>-1816.496697460179</v>
+        <v>3980548.660716224</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2285,31 +2291,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>24.72397184833657</v>
+        <v>1116398.96188249</v>
       </c>
       <c r="G54">
-        <v>766.6761350034103</v>
+        <v>4841862.958411833</v>
       </c>
       <c r="H54">
-        <v>1023.611420975422</v>
+        <v>3986351.773344978</v>
       </c>
       <c r="I54">
-        <v>1124.578462903846</v>
+        <v>1117917.848751026</v>
       </c>
       <c r="J54">
-        <v>-417.5341366687834</v>
+        <v>4840683.562692695</v>
       </c>
       <c r="K54">
-        <v>-2039.359700992945</v>
+        <v>3980079.875095996</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2317,34 +2323,34 @@
         <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>229.5807220209608</v>
+        <v>1116579.289089128</v>
       </c>
       <c r="G55">
-        <v>-140.9577251595117</v>
+        <v>4841123.637093306</v>
       </c>
       <c r="H55">
-        <v>637.198894576369</v>
+        <v>3985221.909328504</v>
       </c>
       <c r="I55">
-        <v>-914.8668863520319</v>
+        <v>1114862.95171183</v>
       </c>
       <c r="J55">
-        <v>1401.738049490694</v>
+        <v>4843231.531537533</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984364.387855296</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2352,34 +2358,34 @@
         <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>229.5807220209608</v>
+        <v>1116579.289089128</v>
       </c>
       <c r="G56">
-        <v>-140.9577251595117</v>
+        <v>4841123.637093306</v>
       </c>
       <c r="H56">
-        <v>637.198894576369</v>
+        <v>3985221.909328504</v>
       </c>
       <c r="I56">
-        <v>-896.8049779652447</v>
+        <v>1114892.565750643</v>
       </c>
       <c r="J56">
-        <v>1367.639658291912</v>
+        <v>4843182.879866355</v>
       </c>
       <c r="K56">
-        <v>212.2509993959856</v>
+        <v>3984668.183394874</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2387,34 +2393,34 @@
         <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>229.5807220209608</v>
+        <v>1116579.289089128</v>
       </c>
       <c r="G57">
-        <v>-140.9577251595117</v>
+        <v>4841123.637093306</v>
       </c>
       <c r="H57">
-        <v>637.198894576369</v>
+        <v>3985221.909328504</v>
       </c>
       <c r="I57">
-        <v>-878.2983117010841</v>
+        <v>1114922.909007917</v>
       </c>
       <c r="J57">
-        <v>1333.541267093129</v>
+        <v>4843134.228195176</v>
       </c>
       <c r="K57">
-        <v>413.9181910384339</v>
+        <v>3984956.830296302</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2422,34 +2428,34 @@
         <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>229.5807220209608</v>
+        <v>1116579.289089128</v>
       </c>
       <c r="G58">
-        <v>-140.9577251595117</v>
+        <v>4841123.637093306</v>
       </c>
       <c r="H58">
-        <v>637.198894576369</v>
+        <v>3985221.909328504</v>
       </c>
       <c r="I58">
-        <v>-859.3359358059892</v>
+        <v>1114953.999439986</v>
       </c>
       <c r="J58">
-        <v>1299.442875894346</v>
+        <v>4843085.576523998</v>
       </c>
       <c r="K58">
-        <v>605.0015749273464</v>
+        <v>3985230.328559576</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2457,34 +2463,34 @@
         <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>229.5807220209608</v>
+        <v>1116579.289089128</v>
       </c>
       <c r="G59">
-        <v>-140.9577251595117</v>
+        <v>4841123.637093306</v>
       </c>
       <c r="H59">
-        <v>637.198894576369</v>
+        <v>3985221.909328504</v>
       </c>
       <c r="I59">
-        <v>-839.9066288495437</v>
+        <v>1114985.855445342</v>
       </c>
       <c r="J59">
-        <v>1265.344484695564</v>
+        <v>4843036.924852819</v>
       </c>
       <c r="K59">
-        <v>785.501151062722</v>
+        <v>3985488.678184699</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2492,34 +2498,34 @@
         <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>229.5807220209608</v>
+        <v>1116579.289089128</v>
       </c>
       <c r="G60">
-        <v>-140.9577251595117</v>
+        <v>4841123.637093306</v>
       </c>
       <c r="H60">
-        <v>637.198894576369</v>
+        <v>3985221.909328504</v>
       </c>
       <c r="I60">
-        <v>-819.9988930839301</v>
+        <v>1115018.495875523</v>
       </c>
       <c r="J60">
-        <v>1231.246093496781</v>
+        <v>4842988.273181641</v>
       </c>
       <c r="K60">
-        <v>955.4169194445619</v>
+        <v>3985731.879171669</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2527,34 +2533,34 @@
         <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>229.5807220209608</v>
+        <v>1116579.289089128</v>
       </c>
       <c r="G61">
-        <v>-140.9577251595117</v>
+        <v>4841123.637093306</v>
       </c>
       <c r="H61">
-        <v>637.198894576369</v>
+        <v>3985221.909328504</v>
       </c>
       <c r="I61">
-        <v>-799.6009476398693</v>
+        <v>1115051.940046269</v>
       </c>
       <c r="J61">
-        <v>1197.147702297998</v>
+        <v>4842939.621510462</v>
       </c>
       <c r="K61">
-        <v>1114.748880072865</v>
+        <v>3985959.931520488</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2562,34 +2568,34 @@
         <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>229.5807220209608</v>
+        <v>1116579.289089128</v>
       </c>
       <c r="G62">
-        <v>-140.9577251595117</v>
+        <v>4841123.637093306</v>
       </c>
       <c r="H62">
-        <v>637.198894576369</v>
+        <v>3985221.909328504</v>
       </c>
       <c r="I62">
-        <v>-778.7007215550144</v>
+        <v>1115086.207748951</v>
       </c>
       <c r="J62">
-        <v>1163.049311099215</v>
+        <v>4842890.969839283</v>
       </c>
       <c r="K62">
-        <v>1263.497032947632</v>
+        <v>3986172.835231154</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2597,34 +2603,34 @@
         <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>229.5807220209608</v>
+        <v>1116579.289089128</v>
       </c>
       <c r="G63">
-        <v>-117.6816370367459</v>
+        <v>4841140.149909358</v>
       </c>
       <c r="H63">
-        <v>637.198894576369</v>
+        <v>3985221.909328504</v>
       </c>
       <c r="I63">
-        <v>-757.2858466306755</v>
+        <v>1115121.319262286</v>
       </c>
       <c r="J63">
-        <v>1128.950919900432</v>
+        <v>4842842.318168105</v>
       </c>
       <c r="K63">
-        <v>1401.661378068862</v>
+        <v>3986370.590303667</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2632,34 +2638,34 @@
         <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>178.1814223622719</v>
+        <v>1116530.608491123</v>
       </c>
       <c r="G64">
-        <v>-94.40554891398016</v>
+        <v>4841156.662725408</v>
       </c>
       <c r="H64">
-        <v>785.0247503711591</v>
+        <v>3985421.163414339</v>
       </c>
       <c r="I64">
-        <v>-735.3436501126481</v>
+        <v>1115157.295364335</v>
       </c>
       <c r="J64">
-        <v>1094.85252870165</v>
+        <v>4842793.666496927</v>
       </c>
       <c r="K64">
-        <v>1529.241915436555</v>
+        <v>3986553.196738029</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2667,34 +2673,34 @@
         <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>147.9869122800039</v>
+        <v>1116502.011081878</v>
       </c>
       <c r="G65">
-        <v>-71.12946079121438</v>
+        <v>4841173.17554146</v>
       </c>
       <c r="H65">
-        <v>873.0773901838145</v>
+        <v>3985539.849338102</v>
       </c>
       <c r="I65">
-        <v>-712.8611471918151</v>
+        <v>1115194.1573448</v>
       </c>
       <c r="J65">
-        <v>1060.754137502867</v>
+        <v>4842745.014825747</v>
       </c>
       <c r="K65">
-        <v>1646.238645050713</v>
+        <v>3986720.654534239</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2702,34 +2708,34 @@
         <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>128.9259223347391</v>
+        <v>1116483.95829915</v>
       </c>
       <c r="G66">
-        <v>-47.85337266844861</v>
+        <v>4841189.688357511</v>
       </c>
       <c r="H66">
-        <v>936.0026606075062</v>
+        <v>3985624.666146141</v>
       </c>
       <c r="I66">
-        <v>-689.8250333200797</v>
+        <v>1115231.927017621</v>
       </c>
       <c r="J66">
-        <v>1026.655746304084</v>
+        <v>4842696.363154569</v>
       </c>
       <c r="K66">
-        <v>1752.651566911335</v>
+        <v>3986872.963692296</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2737,34 +2743,34 @@
         <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>115.632865320012</v>
+        <v>1116471.368361757</v>
       </c>
       <c r="G67">
-        <v>-24.57728454568282</v>
+        <v>4841206.201173562</v>
       </c>
       <c r="H67">
-        <v>985.0025349741967</v>
+        <v>3985690.71294912</v>
       </c>
       <c r="I67">
-        <v>-666.2216763370892</v>
+        <v>1115270.626733888</v>
       </c>
       <c r="J67">
-        <v>992.5573551053011</v>
+        <v>4842647.711483391</v>
       </c>
       <c r="K67">
-        <v>1848.48068101842</v>
+        <v>3987010.124212202</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2772,34 +2778,34 @@
         <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>105.715846705388</v>
+        <v>1116461.975891435</v>
       </c>
       <c r="G68">
-        <v>-1.301196422917056</v>
+        <v>4841222.713989614</v>
       </c>
       <c r="H68">
-        <v>1025.137232857219</v>
+        <v>3985744.810403818</v>
       </c>
       <c r="I68">
-        <v>-642.0371084030829</v>
+        <v>1115310.279395064</v>
       </c>
       <c r="J68">
-        <v>958.4589639065184</v>
+        <v>4842599.059812212</v>
       </c>
       <c r="K68">
-        <v>1933.725987371967</v>
+        <v>3987132.136093955</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2807,34 +2813,34 @@
         <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>97.96212301934452</v>
+        <v>1116454.632291263</v>
       </c>
       <c r="G69">
-        <v>21.97489169984873</v>
+        <v>4841239.226805664</v>
       </c>
       <c r="H69">
-        <v>1059.128392273189</v>
+        <v>3985790.626999024</v>
       </c>
       <c r="I69">
-        <v>-617.2570177330963</v>
+        <v>1115350.908466543</v>
       </c>
       <c r="J69">
-        <v>924.3605727077355</v>
+        <v>4842550.408141034</v>
       </c>
       <c r="K69">
-        <v>2008.387485971979</v>
+        <v>3987238.999337555</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2842,34 +2848,34 @@
         <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>91.68879599020161</v>
+        <v>1116448.69078402</v>
       </c>
       <c r="G70">
-        <v>45.25097982261451</v>
+        <v>4841255.739621716</v>
       </c>
       <c r="H70">
-        <v>1088.609532353815</v>
+        <v>3985830.364550919</v>
       </c>
       <c r="I70">
-        <v>-591.8667401276264</v>
+        <v>1115392.537991529</v>
       </c>
       <c r="J70">
-        <v>890.2621815089528</v>
+        <v>4842501.756469855</v>
       </c>
       <c r="K70">
-        <v>2072.465176818454</v>
+        <v>3987330.713943004</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2877,34 +2883,34 @@
         <v>96</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>86.47969924436784</v>
+        <v>1116443.757215929</v>
       </c>
       <c r="G71">
-        <v>68.52706794538028</v>
+        <v>4841272.252437767</v>
       </c>
       <c r="H71">
-        <v>1114.638461777161</v>
+        <v>3985865.448877065</v>
       </c>
       <c r="I71">
-        <v>-565.851250294749</v>
+        <v>1115435.192605268</v>
       </c>
       <c r="J71">
-        <v>856.16379031017</v>
+        <v>4842453.104798676</v>
       </c>
       <c r="K71">
-        <v>2125.959059911394</v>
+        <v>3987407.2799103</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2912,34 +2918,34 @@
         <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>82.06538168810553</v>
+        <v>1116439.576388178</v>
       </c>
       <c r="G72">
-        <v>91.80315606814608</v>
+        <v>4841288.765253818</v>
       </c>
       <c r="H72">
-        <v>1137.93959138334</v>
+        <v>3985896.856408945</v>
       </c>
       <c r="I72">
-        <v>-539.1951529585486</v>
+        <v>1115478.89754963</v>
       </c>
       <c r="J72">
-        <v>822.0653991113871</v>
+        <v>4842404.453127499</v>
       </c>
       <c r="K72">
-        <v>2168.869135250797</v>
+        <v>3987468.697239445</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2947,34 +2953,34 @@
         <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>78.2628777758233</v>
+        <v>1116435.975012953</v>
       </c>
       <c r="G73">
-        <v>115.0792441909119</v>
+        <v>4841305.27806987</v>
       </c>
       <c r="H73">
-        <v>1159.030814421019</v>
+        <v>3985925.28521352</v>
       </c>
       <c r="I73">
-        <v>-511.8826737486043</v>
+        <v>1115523.678688039</v>
       </c>
       <c r="J73">
-        <v>787.9670079126045</v>
+        <v>4842355.801456319</v>
       </c>
       <c r="K73">
-        <v>2201.195402836663</v>
+        <v>3987514.965930437</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2982,34 +2988,34 @@
         <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>74.94309537842872</v>
+        <v>1116432.830826293</v>
       </c>
       <c r="G74">
-        <v>138.3553323136776</v>
+        <v>4841321.790885921</v>
       </c>
       <c r="H74">
-        <v>1178.295238424766</v>
+        <v>3985951.251680437</v>
       </c>
       <c r="I74">
-        <v>-483.8976498651353</v>
+        <v>1115569.562520783</v>
       </c>
       <c r="J74">
-        <v>753.8686167138216</v>
+        <v>4842307.149785141</v>
       </c>
       <c r="K74">
-        <v>2222.937862668992</v>
+        <v>3987546.085983277</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3017,34 +3023,34 @@
         <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>72.01204128946304</v>
+        <v>1116430.054806643</v>
       </c>
       <c r="G75">
-        <v>161.6314204364434</v>
+        <v>4841338.303701972</v>
       </c>
       <c r="H75">
-        <v>1196.024246207739</v>
+        <v>3985975.148563831</v>
       </c>
       <c r="I75">
-        <v>-455.2235205142856</v>
+        <v>1115616.576200696</v>
       </c>
       <c r="J75">
-        <v>719.7702255150389</v>
+        <v>4842258.498113963</v>
       </c>
       <c r="K75">
-        <v>2234.096514747786</v>
+        <v>3987562.057397965</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3052,34 +3058,34 @@
         <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>69.39945524401583</v>
+        <v>1116427.580410068</v>
       </c>
       <c r="G76">
-        <v>184.9075085592092</v>
+        <v>4841354.816518023</v>
       </c>
       <c r="H76">
-        <v>1212.44462528982</v>
+        <v>3985997.281550009</v>
       </c>
       <c r="I76">
-        <v>-425.8433171078865</v>
+        <v>1115664.747549226</v>
       </c>
       <c r="J76">
-        <v>685.6718343162561</v>
+        <v>4842209.846442784</v>
       </c>
       <c r="K76">
-        <v>2234.671359073043</v>
+        <v>3987562.880174501</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3087,34 +3093,34 @@
         <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>67.05163407908174</v>
+        <v>1116425.356773966</v>
       </c>
       <c r="G77">
-        <v>208.183596681975</v>
+        <v>4841371.329334075</v>
       </c>
       <c r="H77">
-        <v>1227.736354170423</v>
+        <v>3986017.893231521</v>
       </c>
       <c r="I77">
-        <v>-395.7396532218965</v>
+        <v>1115714.105072896</v>
       </c>
       <c r="J77">
-        <v>651.5734431174732</v>
+        <v>4842161.194771605</v>
       </c>
       <c r="K77">
-        <v>2224.662395644763</v>
+        <v>3987548.554312884</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3122,34 +3128,34 @@
         <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>64.92673751259856</v>
+        <v>1116423.344271145</v>
       </c>
       <c r="G78">
-        <v>231.4596848047408</v>
+        <v>4841387.842150126</v>
       </c>
       <c r="H78">
-        <v>1242.044659108665</v>
+        <v>3986037.179358464</v>
       </c>
       <c r="I78">
-        <v>-364.8947143075766</v>
+        <v>1115764.677980178</v>
       </c>
       <c r="J78">
-        <v>617.4750519186905</v>
+        <v>4842112.543100427</v>
       </c>
       <c r="K78">
-        <v>2204.069624462948</v>
+        <v>3987519.079813115</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3157,34 +3163,34 @@
         <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>62.99162242495747</v>
+        <v>1116421.511511549</v>
       </c>
       <c r="G79">
-        <v>254.7357729275066</v>
+        <v>4841404.354966177</v>
       </c>
       <c r="H79">
-        <v>1255.488422756236</v>
+        <v>3986055.300172454</v>
       </c>
       <c r="I79">
-        <v>-333.2902471493152</v>
+        <v>1115816.496198776</v>
       </c>
       <c r="J79">
-        <v>583.3766607199077</v>
+        <v>4842063.891429248</v>
       </c>
       <c r="K79">
-        <v>2172.893045527595</v>
+        <v>3987474.456675194</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3192,34 +3198,34 @@
         <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>61.21965090342247</v>
+        <v>1116419.833266245</v>
       </c>
       <c r="G80">
-        <v>278.0118610502723</v>
+        <v>4841420.867782228</v>
       </c>
       <c r="H80">
-        <v>1268.166194021326</v>
+        <v>3986072.388507308</v>
       </c>
       <c r="I80">
-        <v>-300.9075490628584</v>
+        <v>1115869.590393335</v>
       </c>
       <c r="J80">
-        <v>549.2782695211248</v>
+        <v>4842015.23975807</v>
       </c>
       <c r="K80">
-        <v>2131.132658838706</v>
+        <v>3987414.684899121</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3227,34 +3233,34 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>59.58913711941096</v>
+        <v>1116418.288996448</v>
       </c>
       <c r="G81">
-        <v>301.2879491730381</v>
+        <v>4841437.380598279</v>
       </c>
       <c r="H81">
-        <v>1280.160576196917</v>
+        <v>3986088.555703789</v>
       </c>
       <c r="I81">
-        <v>-267.7274568275587</v>
+        <v>1115923.991983589</v>
       </c>
       <c r="J81">
-        <v>515.1798783223421</v>
+        <v>4841966.588086891</v>
       </c>
       <c r="K81">
-        <v>2078.788464396282</v>
+        <v>3987339.764484896</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3262,34 +3268,34 @@
         <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>58.0822242452339</v>
+        <v>1116416.861789844</v>
       </c>
       <c r="G82">
-        <v>324.5640372958039</v>
+        <v>4841453.893414331</v>
       </c>
       <c r="H82">
-        <v>1291.541491713192</v>
+        <v>3986103.896010158</v>
       </c>
       <c r="I82">
-        <v>-233.7303353460894</v>
+        <v>1115979.733162955</v>
       </c>
       <c r="J82">
-        <v>481.0814871235593</v>
+        <v>4841917.936415712</v>
       </c>
       <c r="K82">
-        <v>2015.86046220032</v>
+        <v>3987249.695432519</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3297,34 +3303,34 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>56.68405753051863</v>
+        <v>1116415.537577409</v>
       </c>
       <c r="G83">
-        <v>347.8401254185696</v>
+        <v>4841470.406230382</v>
       </c>
       <c r="H83">
-        <v>1302.36865187521</v>
+        <v>3986118.489911127</v>
       </c>
       <c r="I83">
-        <v>-198.8960660249174</v>
+        <v>1116036.846917581</v>
       </c>
       <c r="J83">
-        <v>446.9830959247765</v>
+        <v>4841869.284744535</v>
       </c>
       <c r="K83">
-        <v>1942.348652250821</v>
+        <v>3987144.477741989</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3332,34 +3338,34 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>55.38216552108931</v>
+        <v>1116414.304547349</v>
       </c>
       <c r="G84">
-        <v>371.1162135413354</v>
+        <v>4841486.919046433</v>
       </c>
       <c r="H84">
-        <v>1312.693453153519</v>
+        <v>3986132.406683867</v>
       </c>
       <c r="I84">
-        <v>-163.2040348686517</v>
+        <v>1116095.367045872</v>
       </c>
       <c r="J84">
-        <v>412.8847047259938</v>
+        <v>4841820.633073355</v>
       </c>
       <c r="K84">
-        <v>1858.253034547788</v>
+        <v>3987024.111413307</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3367,34 +3373,34 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>54.16599024844567</v>
+        <v>1116413.152700146</v>
       </c>
       <c r="G85">
-        <v>394.3923016641012</v>
+        <v>4841503.431862485</v>
       </c>
       <c r="H85">
-        <v>1322.5604527402</v>
+        <v>3986145.7063869</v>
       </c>
       <c r="I85">
-        <v>-126.6331202812295</v>
+        <v>1116155.328178484</v>
       </c>
       <c r="J85">
-        <v>378.786313527211</v>
+        <v>4841771.981402176</v>
       </c>
       <c r="K85">
-        <v>1763.573609091217</v>
+        <v>3986888.596446473</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3402,34 +3408,34 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>53.02652580400455</v>
+        <v>1116412.073506247</v>
       </c>
       <c r="G86">
-        <v>417.668389786867</v>
+        <v>4841519.944678535</v>
       </c>
       <c r="H86">
-        <v>1332.008530646055</v>
+        <v>3986158.44142649</v>
       </c>
       <c r="I86">
-        <v>-89.16168056671643</v>
+        <v>1116216.765798824</v>
       </c>
       <c r="J86">
-        <v>344.6879223284282</v>
+        <v>4841723.329730999</v>
       </c>
       <c r="K86">
-        <v>1658.31037588111</v>
+        <v>3986737.932841487</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3437,34 +3443,34 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>51.95603695123602</v>
+        <v>1116411.059639564</v>
       </c>
       <c r="G87">
-        <v>440.9444779096328</v>
+        <v>4841536.457494587</v>
       </c>
       <c r="H87">
-        <v>1341.071815000195</v>
+        <v>3986170.657803854</v>
       </c>
       <c r="I87">
-        <v>-50.76754112232579</v>
+        <v>1116279.716264043</v>
       </c>
       <c r="J87">
-        <v>310.5895311296454</v>
+        <v>4841674.67805982</v>
       </c>
       <c r="K87">
-        <v>1542.463334917466</v>
+        <v>3986572.120598349</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3472,34 +3478,34 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>50.94783764854382</v>
+        <v>1116410.104767702</v>
       </c>
       <c r="G88">
-        <v>464.2205660323986</v>
+        <v>4841552.970310637</v>
       </c>
       <c r="H88">
-        <v>1349.780426193777</v>
+        <v>3986182.39611819</v>
       </c>
       <c r="I88">
-        <v>-11.42798131607782</v>
+        <v>1116344.216826554</v>
       </c>
       <c r="J88">
-        <v>276.4911399308626</v>
+        <v>4841626.026388641</v>
       </c>
       <c r="K88">
-        <v>1416.032486200286</v>
+        <v>3986391.159717058</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3507,34 +3513,34 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>49.99611497586542</v>
+        <v>1116409.203385209</v>
       </c>
       <c r="G89">
-        <v>487.4966541551644</v>
+        <v>4841569.483126689</v>
       </c>
       <c r="H89">
-        <v>1358.161080829205</v>
+        <v>3986193.692380736</v>
       </c>
       <c r="I89">
-        <v>28.88027895866772</v>
+        <v>1116410.305656078</v>
       </c>
       <c r="J89">
-        <v>242.3927487320799</v>
+        <v>4841577.374717463</v>
       </c>
       <c r="K89">
-        <v>1279.01782972957</v>
+        <v>3986195.050197616</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3542,34 +3548,34 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>49.0957878640826</v>
+        <v>1116408.350679774</v>
       </c>
       <c r="G90">
-        <v>510.7727422779301</v>
+        <v>4841585.995942741</v>
       </c>
       <c r="H90">
-        <v>1366.237586021972</v>
+        <v>3986204.57868104</v>
       </c>
       <c r="I90">
-        <v>70.18109305975933</v>
+        <v>1116478.021862228</v>
       </c>
       <c r="J90">
-        <v>208.294357533297</v>
+        <v>4841528.723046284</v>
       </c>
       <c r="K90">
-        <v>1131.419365505317</v>
+        <v>3985983.792040021</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3577,34 +3583,34 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>48.24239278219203</v>
+        <v>1116407.542423957</v>
       </c>
       <c r="G91">
-        <v>534.0488304006959</v>
+        <v>4841602.508758791</v>
       </c>
       <c r="H91">
-        <v>1374.031247108361</v>
+        <v>3986215.08373651</v>
       </c>
       <c r="I91">
-        <v>112.4989017120384</v>
+        <v>1116547.405517657</v>
       </c>
       <c r="J91">
-        <v>174.1959663345143</v>
+        <v>4841480.071375106</v>
       </c>
       <c r="K91">
-        <v>973.2370935275281</v>
+        <v>3985757.385244274</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3612,34 +3618,34 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>47.43199050857694</v>
+        <v>1116406.774886898</v>
       </c>
       <c r="G92">
-        <v>557.3249185234617</v>
+        <v>4841619.021574843</v>
       </c>
       <c r="H92">
-        <v>1381.561206348433</v>
+        <v>3986225.233348949</v>
       </c>
       <c r="I92">
-        <v>155.8587474707094</v>
+        <v>1116618.497681769</v>
       </c>
       <c r="J92">
-        <v>140.0975751357315</v>
+        <v>4841431.419703927</v>
       </c>
       <c r="K92">
-        <v>804.471013796202</v>
+        <v>3985515.829810374</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3647,34 +3653,34 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>46.66108954103842</v>
+        <v>1116406.044761773</v>
       </c>
       <c r="G93">
-        <v>580.6010066462275</v>
+        <v>4841635.534390894</v>
       </c>
       <c r="H93">
-        <v>1388.844726181524</v>
+        <v>3986235.050786354</v>
       </c>
       <c r="I93">
-        <v>200.2862895408613</v>
+        <v>1116691.340425019</v>
       </c>
       <c r="J93">
-        <v>105.9991839369486</v>
+        <v>4841382.768032748</v>
       </c>
       <c r="K93">
-        <v>625.1211263113399</v>
+        <v>3985259.125738323</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3682,34 +3688,34 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>45.92658274739899</v>
+        <v>1116405.349105797</v>
       </c>
       <c r="G94">
-        <v>603.8770947689933</v>
+        <v>4841652.047206945</v>
       </c>
       <c r="H94">
-        <v>1395.897427582281</v>
+        <v>3986244.557104194</v>
       </c>
       <c r="I94">
-        <v>245.8078189619008</v>
+        <v>1116765.976853807</v>
       </c>
       <c r="J94">
-        <v>71.90079273816595</v>
+        <v>4841334.116361571</v>
       </c>
       <c r="K94">
-        <v>435.1874310729418</v>
+        <v>3984987.273028119</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3717,34 +3723,34 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>45.22569463467993</v>
+        <v>1116404.685290284</v>
       </c>
       <c r="G95">
-        <v>627.153182891759</v>
+        <v>4841668.560022997</v>
       </c>
       <c r="H95">
-        <v>1402.733491795969</v>
+        <v>3986253.771417335</v>
       </c>
       <c r="I95">
-        <v>292.4502741658953</v>
+        <v>1116842.45113599</v>
       </c>
       <c r="J95">
-        <v>37.8024015393831</v>
+        <v>4841285.464690392</v>
       </c>
       <c r="K95">
-        <v>234.6699280810066</v>
+        <v>3984700.271679764</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3752,34 +3758,34 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>44.55593719609581</v>
+        <v>1116404.050958827</v>
       </c>
       <c r="G96">
-        <v>650.4292710145248</v>
+        <v>4841685.072839048</v>
       </c>
       <c r="H96">
-        <v>1409.365832003909</v>
+        <v>3986262.71113142</v>
       </c>
       <c r="I96">
-        <v>340.2412569190157</v>
+        <v>1116920.808527017</v>
       </c>
       <c r="J96">
-        <v>3.70401034060025</v>
+        <v>4841236.813019212</v>
       </c>
       <c r="K96">
-        <v>23.56861733553522</v>
+        <v>3984398.121693256</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3787,34 +3793,34 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>43.91507273455539</v>
+        <v>1116403.443992089</v>
       </c>
       <c r="G97">
-        <v>673.7053591372905</v>
+        <v>4841701.585655099</v>
       </c>
       <c r="H97">
-        <v>1415.806240142221</v>
+        <v>3986271.392140767</v>
       </c>
       <c r="I97">
-        <v>389.2090486555334</v>
+        <v>1117001.09539671</v>
       </c>
       <c r="J97">
-        <v>-30.39438085818244</v>
+        <v>4841188.161348035</v>
       </c>
       <c r="K97">
-        <v>-198.116501163472</v>
+        <v>3984080.823068596</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3822,34 +3828,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>43.30108239657466</v>
+        <v>1116402.862478002</v>
       </c>
       <c r="G98">
-        <v>696.9814472600563</v>
+        <v>4841718.09847115</v>
       </c>
       <c r="H98">
-        <v>1422.065513068277</v>
+        <v>3986279.828998434</v>
       </c>
       <c r="I98">
-        <v>439.3826272140208</v>
+        <v>1117083.359256707</v>
       </c>
       <c r="J98">
-        <v>-64.49277205696528</v>
+        <v>4841139.509676856</v>
       </c>
       <c r="K98">
-        <v>-430.3854274160162</v>
+        <v>3983748.375805784</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3857,34 +3863,34 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>42.71213940836763</v>
+        <v>1116402.304686417</v>
       </c>
       <c r="G99">
-        <v>720.2575353828222</v>
+        <v>4841734.611287201</v>
       </c>
       <c r="H99">
-        <v>1428.153561465765</v>
+        <v>3986288.035063006</v>
       </c>
       <c r="I99">
-        <v>490.7916839856653</v>
+        <v>1117167.648788575</v>
       </c>
       <c r="J99">
-        <v>-98.59116325574813</v>
+        <v>4841090.858005677</v>
       </c>
       <c r="K99">
-        <v>-673.2381614220974</v>
+        <v>3983400.77990482</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3892,34 +3898,34 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>42.14658620581223</v>
+        <v>1116401.769047444</v>
       </c>
       <c r="G100">
-        <v>743.5336235055879</v>
+        <v>4841751.124103253</v>
       </c>
       <c r="H100">
-        <v>1434.079504246969</v>
+        <v>3986296.022625839</v>
       </c>
       <c r="I100">
-        <v>543.4666414848465</v>
+        <v>1117254.01387262</v>
       </c>
       <c r="J100">
-        <v>-132.689554454531</v>
+        <v>4841042.206334499</v>
       </c>
       <c r="K100">
-        <v>-926.6747031817147</v>
+        <v>3983038.035365703</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3927,34 +3933,34 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>41.60291480614841</v>
+        <v>1116401.254132862</v>
       </c>
       <c r="G101">
-        <v>766.8097116283536</v>
+        <v>4841767.636919304</v>
       </c>
       <c r="H101">
-        <v>1439.851750709855</v>
+        <v>3986303.803021805</v>
       </c>
       <c r="I101">
-        <v>597.4386713523725</v>
+        <v>1117342.505617406</v>
       </c>
       <c r="J101">
-        <v>-166.7879456533135</v>
+        <v>4840993.55466332</v>
       </c>
       <c r="K101">
-        <v>-1190.695052694866</v>
+        <v>3982660.142188434</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3962,34 +3968,34 @@
         <v>96</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>41.07974989210222</v>
+        <v>1116400.758640102</v>
       </c>
       <c r="G102">
-        <v>790.0857997511196</v>
+        <v>4841784.149735355</v>
       </c>
       <c r="H102">
-        <v>1445.478072307901</v>
+        <v>3986311.386726027</v>
       </c>
       <c r="I102">
-        <v>652.7397128020299</v>
+        <v>1117433.176389995</v>
       </c>
       <c r="J102">
-        <v>-200.8863368520963</v>
+        <v>4840944.902992142</v>
       </c>
       <c r="K102">
-        <v>-1465.299209961556</v>
+        <v>3982267.100373013</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3997,34 +4003,34 @@
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>40.57583417638871</v>
+        <v>1116400.281378378</v>
       </c>
       <c r="G103">
-        <v>813.3618878738853</v>
+        <v>4841800.662551406</v>
       </c>
       <c r="H103">
-        <v>1450.965665569803</v>
+        <v>3986318.783438686</v>
       </c>
       <c r="I103">
-        <v>709.4024915213594</v>
+        <v>1117526.079846944</v>
       </c>
       <c r="J103">
-        <v>-234.9847280508792</v>
+        <v>4840896.251320963</v>
       </c>
       <c r="K103">
-        <v>-1750.487174981783</v>
+        <v>3981858.90991944</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4032,34 +4038,34 @@
         <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>40.09001569203964</v>
+        <v>1116399.821256654</v>
       </c>
       <c r="G104">
-        <v>836.637975996651</v>
+        <v>4841817.175367458</v>
       </c>
       <c r="H104">
-        <v>1456.321207447211</v>
+        <v>3986326.002159627</v>
       </c>
       <c r="I104">
-        <v>767.4605390378518</v>
+        <v>1117621.270966052</v>
       </c>
       <c r="J104">
-        <v>-269.083119249662</v>
+        <v>4840847.599649784</v>
       </c>
       <c r="K104">
-        <v>-2046.258947755546</v>
+        <v>3981435.570827715</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4067,34 +4073,34 @@
         <v>96</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>39.62123671611563</v>
+        <v>1116399.377273156</v>
       </c>
       <c r="G105">
-        <v>859.9140641194168</v>
+        <v>4841833.688183508</v>
       </c>
       <c r="H105">
-        <v>1461.550904158321</v>
+        <v>3986333.051254197</v>
       </c>
       <c r="I105">
-        <v>826.9482125620143</v>
+        <v>1117718.806078892</v>
       </c>
       <c r="J105">
-        <v>-303.1815104484449</v>
+        <v>4840798.947978606</v>
       </c>
       <c r="K105">
-        <v>-2352.614528282845</v>
+        <v>3980997.083097837</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4102,34 +4108,34 @@
         <v>96</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>39.16852408442091</v>
+        <v>1116398.948506193</v>
       </c>
       <c r="G106">
-        <v>883.1901522421825</v>
+        <v>4841850.20099956</v>
       </c>
       <c r="H106">
-        <v>1466.660534423487</v>
+        <v>3986339.938511517</v>
       </c>
       <c r="I106">
-        <v>887.9007153190516</v>
+        <v>1117818.742904156</v>
       </c>
       <c r="J106">
-        <v>-337.2799016472274</v>
+        <v>4840750.296307428</v>
       </c>
       <c r="K106">
-        <v>-2669.553916563678</v>
+        <v>3980543.446729808</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4137,34 +4143,34 @@
         <v>96</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>38.73098069541104</v>
+        <v>1116398.534106113</v>
       </c>
       <c r="G107">
-        <v>906.4662403649482</v>
+        <v>4841866.713815612</v>
       </c>
       <c r="H107">
-        <v>1471.655487848221</v>
+        <v>3986346.671196223</v>
       </c>
       <c r="I107">
-        <v>950.3541173812077</v>
+        <v>1117921.140581802</v>
       </c>
       <c r="J107">
-        <v>-371.3782928460103</v>
+        <v>4840701.644636248</v>
       </c>
       <c r="K107">
-        <v>-2997.07711259805</v>
+        <v>3980074.661723626</v>
       </c>
     </row>
   </sheetData>
